--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2605362.159364341</v>
+        <v>2577540.104977069</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261952</v>
+        <v>2345916.138261951</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>117.3840086103626</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.83371733118085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.393279785173005</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.37284442824544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>142.3870695882594</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77699516265577</v>
+        <v>14.77699516265576</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291237</v>
+        <v>197.0397157291235</v>
       </c>
       <c r="T5" t="n">
         <v>220.7944124161533</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>20.14155479094946</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>43.63935274260711</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0622202054666</v>
@@ -993,7 +993,7 @@
         <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.711627946633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078387</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896019</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537395</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>101.4199245631583</v>
+        <v>132.7991206242623</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83.55348041321514</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300379</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6.867475640209643</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>135.352867717798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>113.7985698091441</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>201.089163843681</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8688121773853</v>
+        <v>11.20507996684646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.7053919670792</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>202.285153642824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>96.22146211417872</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>182.1667637639236</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>116.6365880904759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>110.9395036790074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2381,10 +2381,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>27.95498380984937</v>
       </c>
       <c r="C25" t="n">
-        <v>64.77871132208487</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,7 +2533,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>134.4442626460264</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>42.52548868900507</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274071</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.76481347543516</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.710068144785</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>44.98721589956887</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>101.8625755465367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>23.4757115830074</v>
+        <v>144.9111210879543</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274014</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.9771219799342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10.13442842447669</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274071</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>49.75265095111247</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484032</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>34.85541425449841</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.8069522565823</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="C2" t="n">
-        <v>559.8069522565823</v>
+        <v>298.044392762831</v>
       </c>
       <c r="D2" t="n">
-        <v>559.8069522565823</v>
+        <v>298.044392762831</v>
       </c>
       <c r="E2" t="n">
-        <v>559.8069522565823</v>
+        <v>298.044392762831</v>
       </c>
       <c r="F2" t="n">
-        <v>552.8614515073789</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="G2" t="n">
-        <v>286.9604071117561</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>788.8857000745145</v>
       </c>
       <c r="T2" t="n">
-        <v>907.4554057415451</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="U2" t="n">
-        <v>653.5783839042398</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="V2" t="n">
-        <v>653.5783839042398</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="W2" t="n">
-        <v>653.5783839042398</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="X2" t="n">
-        <v>653.5783839042398</v>
+        <v>563.9454371584544</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.8069522565823</v>
+        <v>563.9454371584544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.6374838154158</v>
+        <v>447.0794530649187</v>
       </c>
       <c r="C3" t="n">
-        <v>109.6374838154158</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="D3" t="n">
-        <v>109.6374838154158</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="E3" t="n">
-        <v>109.6374838154158</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="F3" t="n">
-        <v>109.6374838154158</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="G3" t="n">
-        <v>109.6374838154158</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613333</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L3" t="n">
-        <v>261.6628906109958</v>
+        <v>264.2940185443792</v>
       </c>
       <c r="M3" t="n">
-        <v>522.2725042231457</v>
+        <v>264.2940185443792</v>
       </c>
       <c r="N3" t="n">
-        <v>782.8821178352956</v>
+        <v>524.9036321565297</v>
       </c>
       <c r="O3" t="n">
-        <v>1043.295181927788</v>
+        <v>785.316696249022</v>
       </c>
       <c r="P3" t="n">
-        <v>1043.295181927788</v>
+        <v>977.3180709271207</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406835</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T3" t="n">
-        <v>580.4293576557594</v>
+        <v>850.9830782217446</v>
       </c>
       <c r="U3" t="n">
-        <v>352.2090288979642</v>
+        <v>622.7627494639494</v>
       </c>
       <c r="V3" t="n">
-        <v>352.2090288979642</v>
+        <v>622.7627494639494</v>
       </c>
       <c r="W3" t="n">
-        <v>352.2090288979642</v>
+        <v>615.2947900849867</v>
       </c>
       <c r="X3" t="n">
-        <v>144.3575286924314</v>
+        <v>615.2947900849867</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.6374838154158</v>
+        <v>615.2947900849867</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706541</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.86334570079192</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="C5" t="n">
-        <v>52.86334570079192</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="D5" t="n">
-        <v>52.86334570079192</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="E5" t="n">
-        <v>52.86334570079192</v>
+        <v>390.3285409012351</v>
       </c>
       <c r="F5" t="n">
-        <v>45.91784495158846</v>
+        <v>383.3830401520316</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153213</v>
+        <v>368.4567824119753</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153213</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153213</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931696</v>
+        <v>63.33729848931739</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817341</v>
+        <v>232.559939181735</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923784</v>
+        <v>494.7722161923801</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365628</v>
+        <v>803.1404427365653</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029474</v>
+        <v>1101.866392029478</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245503</v>
+        <v>1338.757197245508</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927372</v>
+        <v>1503.263635927377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576606</v>
+        <v>1549.579360576612</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576606</v>
+        <v>1549.579360576612</v>
       </c>
       <c r="S5" t="n">
-        <v>1350.549344688603</v>
+        <v>1350.549344688608</v>
       </c>
       <c r="T5" t="n">
-        <v>1127.524685682387</v>
+        <v>1127.524685682393</v>
       </c>
       <c r="U5" t="n">
-        <v>873.6826720261872</v>
+        <v>1107.17968084305</v>
       </c>
       <c r="V5" t="n">
-        <v>873.6826720261872</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="W5" t="n">
-        <v>829.6025177407255</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="X5" t="n">
-        <v>829.6025177407255</v>
+        <v>776.1167934994794</v>
       </c>
       <c r="Y5" t="n">
-        <v>439.4631857649137</v>
+        <v>776.1167934994794</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>749.9852286060939</v>
+        <v>519.8174826017461</v>
       </c>
       <c r="C6" t="n">
-        <v>575.5321993249669</v>
+        <v>519.8174826017461</v>
       </c>
       <c r="D6" t="n">
-        <v>426.5977896637156</v>
+        <v>519.8174826017461</v>
       </c>
       <c r="E6" t="n">
-        <v>426.5977896637156</v>
+        <v>360.5800275962906</v>
       </c>
       <c r="F6" t="n">
-        <v>280.0632316906006</v>
+        <v>360.5800275962906</v>
       </c>
       <c r="G6" t="n">
-        <v>141.6165446143716</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153213</v>
+        <v>111.5083831172221</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153213</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="J6" t="n">
-        <v>30.99158721153213</v>
+        <v>49.5259597103254</v>
       </c>
       <c r="K6" t="n">
-        <v>201.3182042532632</v>
+        <v>219.8525767520568</v>
       </c>
       <c r="L6" t="n">
-        <v>491.7477567627741</v>
+        <v>510.2821292615683</v>
       </c>
       <c r="M6" t="n">
-        <v>875.2686485054842</v>
+        <v>510.2821292615683</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042755</v>
+        <v>893.8030210042798</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114863</v>
+        <v>1208.814860114868</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258018</v>
+        <v>1444.636565258023</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576606</v>
+        <v>1549.579360576612</v>
       </c>
       <c r="R6" t="n">
-        <v>1549.579360576606</v>
+        <v>1466.051332697032</v>
       </c>
       <c r="S6" t="n">
-        <v>1549.579360576606</v>
+        <v>1297.911733212586</v>
       </c>
       <c r="T6" t="n">
-        <v>1549.579360576606</v>
+        <v>1096.870415481536</v>
       </c>
       <c r="U6" t="n">
-        <v>1549.579360576606</v>
+        <v>1096.870415481536</v>
       </c>
       <c r="V6" t="n">
-        <v>1314.427252344864</v>
+        <v>861.7183072497933</v>
       </c>
       <c r="W6" t="n">
-        <v>1060.189895616662</v>
+        <v>861.7183072497933</v>
       </c>
       <c r="X6" t="n">
-        <v>957.7455273710477</v>
+        <v>727.5777813667</v>
       </c>
       <c r="Y6" t="n">
-        <v>749.9852286060939</v>
+        <v>519.8174826017461</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.4521980933541</v>
+        <v>115.3890421743758</v>
       </c>
       <c r="C7" t="n">
-        <v>108.4521980933541</v>
+        <v>115.3890421743758</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4521980933541</v>
+        <v>115.3890421743758</v>
       </c>
       <c r="E7" t="n">
-        <v>108.4521980933541</v>
+        <v>115.3890421743758</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4521980933541</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="G7" t="n">
-        <v>108.4521980933541</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="H7" t="n">
-        <v>108.4521980933541</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="I7" t="n">
-        <v>108.4521980933541</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153213</v>
+        <v>30.99158721153224</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770176958</v>
+        <v>36.06994770176993</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391344</v>
+        <v>98.09493531391411</v>
       </c>
       <c r="M7" t="n">
-        <v>173.880711300449</v>
+        <v>173.88071130045</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454161</v>
+        <v>253.2990873454173</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451002</v>
+        <v>310.6385163451017</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179041</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179041</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179041</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179041</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179041</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="U7" t="n">
-        <v>329.2447772368843</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="V7" t="n">
-        <v>329.2447772368843</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="W7" t="n">
-        <v>329.2447772368843</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="X7" t="n">
-        <v>329.2447772368843</v>
+        <v>336.1816213179059</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4521980933541</v>
+        <v>115.3890421743758</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>762.0928343289041</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>344.129026227091</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.537684208512</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.474796864941</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.706141594827</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.240383333747</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.240383333747</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341678</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003194</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183167</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.2170914602859</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>97.2170914602859</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.2170914602859</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.2170914602859</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.2170914602859</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765193</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765193</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W13" t="n">
-        <v>496.6650364395587</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X13" t="n">
-        <v>496.6650364395587</v>
+        <v>592.5368061590567</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.8724572960286</v>
+        <v>592.5368061590567</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5315,13 +5315,13 @@
         <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766206</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433115</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028589</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687014</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V16" t="n">
-        <v>805.539183663959</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W16" t="n">
-        <v>805.539183663959</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="X16" t="n">
-        <v>805.539183663959</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.7466045204288</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766205</v>
+        <v>638.3691419079756</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.2366179610311</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>341.3004350331242</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>341.3004350331242</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>341.3004350331242</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>194.4104875352139</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028589</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045613</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045613</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.2366179610311</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,7 +5741,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>2375.9892362638</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108313</v>
+        <v>2637.525585674018</v>
       </c>
       <c r="L21" t="n">
-        <v>3262.052667528207</v>
+        <v>3251.422655430907</v>
       </c>
       <c r="M21" t="n">
-        <v>3569.372800808169</v>
+        <v>3558.742788710869</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.235428472202</v>
+        <v>3888.605416374902</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774861</v>
+        <v>4558.069177677561</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557071</v>
+        <v>4763.091658459771</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014294</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="R21" t="n">
         <v>4860.854573014294</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3895.563459493838</v>
+        <v>693.2786482925527</v>
       </c>
       <c r="C22" t="n">
-        <v>3777.748724048913</v>
+        <v>524.3424653646458</v>
       </c>
       <c r="D22" t="n">
-        <v>3777.748724048913</v>
+        <v>524.3424653646458</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048913</v>
+        <v>524.3424653646458</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048913</v>
+        <v>377.4525178667354</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368733</v>
+        <v>209.277196186556</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365625</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365625</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365625</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W22" t="n">
-        <v>4525.994054365625</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X22" t="n">
-        <v>4298.004503467608</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="Y22" t="n">
-        <v>4077.211924324078</v>
+        <v>874.9271131227924</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,10 +5999,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6029,7 +6029,7 @@
         <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147083</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>330.825454879945</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404653</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404653</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929847</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227924</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169056</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="W25" t="n">
-        <v>330.825454879945</v>
+        <v>3858.603338895949</v>
       </c>
       <c r="X25" t="n">
-        <v>330.825454879945</v>
+        <v>3858.603338895949</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.825454879945</v>
+        <v>3637.810759752419</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.9892362638</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277035</v>
+        <v>2525.05892046586</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341677</v>
+        <v>2771.824048372324</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>3540.192194764786</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>3973.880983602627</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821324</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>3914.311870797677</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>3745.37568786977</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U28" t="n">
-        <v>1256.041221393652</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="V28" t="n">
-        <v>1256.041221393652</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W28" t="n">
-        <v>966.6240513566914</v>
+        <v>4316.752914771447</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>4316.752914771447</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>4095.960335627917</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643325</v>
@@ -6491,16 +6491,16 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6543,19 +6543,19 @@
         <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507007</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.67826817104</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3879.867720217122</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="C31" t="n">
-        <v>3710.931537289215</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D31" t="n">
-        <v>3710.931537289215</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E31" t="n">
-        <v>3710.931537289215</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596856</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014294</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014294</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227852</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.725934227852</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W31" t="n">
-        <v>4282.308764190891</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X31" t="n">
-        <v>4282.308764190891</v>
+        <v>927.0188572379255</v>
       </c>
       <c r="Y31" t="n">
-        <v>4061.516185047361</v>
+        <v>706.2262780943954</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028589</v>
@@ -6780,22 +6780,22 @@
         <v>2375.9892362638</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.05892046586</v>
+        <v>2786.879505108313</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372324</v>
+        <v>3336.698222658632</v>
       </c>
       <c r="M33" t="n">
-        <v>3540.192194764786</v>
+        <v>3644.018355938594</v>
       </c>
       <c r="N33" t="n">
-        <v>3870.054822428819</v>
+        <v>3973.880983602627</v>
       </c>
       <c r="O33" t="n">
-        <v>4539.518583731478</v>
+        <v>4253.421048821324</v>
       </c>
       <c r="P33" t="n">
-        <v>4744.541064513688</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q33" t="n">
         <v>4860.854573014294</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683722</v>
+        <v>573.2461374003677</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404653</v>
+        <v>404.3099544724608</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404653</v>
+        <v>254.1933150601251</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028589</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>883.1107261099197</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>883.1107261099197</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X34" t="n">
-        <v>655.1211752119024</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y34" t="n">
-        <v>434.3285960683722</v>
+        <v>754.8946022306075</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701563</v>
+        <v>2649.889045452865</v>
       </c>
       <c r="L36" t="n">
-        <v>1024.771599890051</v>
+        <v>3166.797400914751</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>3474.117534194713</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>4278.529112458864</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4558.069177677561</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459771</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.7956248556239</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="C37" t="n">
-        <v>530.7956248556239</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293938</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W37" t="n">
-        <v>933.2366688293938</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X37" t="n">
-        <v>933.2366688293938</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.4440896858637</v>
+        <v>503.0396462065439</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155882</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
         <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141295</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2315.73845358094</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.9567375132466</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C40" t="n">
-        <v>674.9567375132466</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>524.8400981009108</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.867621687013</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>1009.867621687013</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y40" t="n">
-        <v>789.0750425434832</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7442,13 +7442,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.9892362638</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108313</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014777</v>
+        <v>943.0172707642133</v>
       </c>
       <c r="M42" t="n">
-        <v>3740.68996993634</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N42" t="n">
-        <v>4070.552597600373</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>4350.09266281907</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.11514360128</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916994</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3806.718552847565</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3806.718552847565</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3806.718552847565</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866644</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929847</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>4437.149147719352</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>4437.149147719352</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>4437.149147719352</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>4209.159596821335</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y43" t="n">
-        <v>3988.367017677805</v>
+        <v>221.1079791745893</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,55 +7643,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L45" t="n">
-        <v>806.1650729342605</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214222</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878255</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>909.3712637033474</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>619.9540936663868</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>584.7466045204288</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7466045204288</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>238.8810096977045</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>129.5917403577178</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>381.7094952808122</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.4337412705268</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2612329527929</v>
+        <v>118.9828213354121</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184941</v>
+        <v>70.8598003743418</v>
       </c>
       <c r="N6" t="n">
-        <v>76.90265003936894</v>
+        <v>445.5759018009038</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="M12" t="n">
-        <v>91.23759968301994</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622787</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>158.8724419039321</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>104.8749102765736</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294526</v>
       </c>
       <c r="L21" t="n">
-        <v>230.715186377202</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>369.0893880493725</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139951</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>104.8749102765734</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.7371603504729</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>29.47535963978166</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.1147370139947</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.47535963978044</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445214</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>230.7151863772027</v>
+        <v>272.8719470256791</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.83804904622771</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445214</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627446</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,10 +11142,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>148.1350559470634</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7628319612128</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>274.3657496970634</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>104.8749102765738</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.963168004551989</v>
+        <v>168.6269002150908</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>5.842169091310069</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>49.85248968100399</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>70.27210634919886</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>104.3562345726674</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.61023300815191</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>37.97432468852868</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8769963720879</v>
       </c>
       <c r="C25" t="n">
-        <v>102.468109776543</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>14.17121037218598</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>243.7118637095723</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.65623454749608</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>78.99958724425215</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>101.4467467470003</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>150.2750677772913</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>125.139761435205</v>
+        <v>3.704351930258099</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.8548582020031</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>215.5752269645605</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.18000134477691</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>96.6813116954567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>61.34209567542482</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>190.8542411345387</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065634</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065632</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="K2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065634</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749502</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300951</v>
+        <v>138241.181830096</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133538</v>
+        <v>300621.8974133524</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124979</v>
+        <v>68875.69873125</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414754</v>
+        <v>31952.95942414768</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179978</v>
+        <v>72609.89266179941</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284041.3660845612</v>
+        <v>287707.9213319435</v>
       </c>
       <c r="C4" t="n">
-        <v>244257.3382671248</v>
+        <v>247985.9969236126</v>
       </c>
       <c r="D4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>11926.75926156276</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>11926.75926156276</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267145</v>
+        <v>60032.17562267156</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871667</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171211.0990318687</v>
+        <v>167544.5437844861</v>
       </c>
       <c r="C6" t="n">
-        <v>173250.6316783213</v>
+        <v>169521.9730218319</v>
       </c>
       <c r="D6" t="n">
-        <v>79400.72909192098</v>
+        <v>75525.39367022796</v>
       </c>
       <c r="E6" t="n">
-        <v>-42530.53208061284</v>
+        <v>-45649.44244048903</v>
       </c>
       <c r="F6" t="n">
-        <v>482629.5043962841</v>
+        <v>479510.5940364077</v>
       </c>
       <c r="G6" t="n">
-        <v>482629.5043962836</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="H6" t="n">
-        <v>482629.5043962838</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="I6" t="n">
-        <v>482629.5043962841</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="J6" t="n">
-        <v>413753.8056650338</v>
+        <v>410634.8953051576</v>
       </c>
       <c r="K6" t="n">
-        <v>450676.5449721362</v>
+        <v>447557.6346122595</v>
       </c>
       <c r="L6" t="n">
-        <v>410019.6117344836</v>
+        <v>406900.7013746082</v>
       </c>
       <c r="M6" t="n">
-        <v>347828.4891624463</v>
+        <v>344709.5788025703</v>
       </c>
       <c r="N6" t="n">
-        <v>482629.5043962841</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="O6" t="n">
-        <v>482629.5043962838</v>
+        <v>479510.5940364074</v>
       </c>
       <c r="P6" t="n">
-        <v>482629.5043962838</v>
+        <v>479510.5940364076</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792218</v>
+        <v>130.778410179223</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441516</v>
+        <v>387.394840144153</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253574</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253574</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="N4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924324</v>
+        <v>107.7650274924331</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378649</v>
+        <v>246.9652540378637</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C4" t="n">
-        <v>124.152806192485</v>
+        <v>124.1528061924858</v>
       </c>
       <c r="D4" t="n">
-        <v>286.892432610404</v>
+        <v>286.8924326104026</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516664</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924852</v>
+        <v>124.1528061924858</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104041</v>
+        <v>286.8924326104026</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="K4" t="n">
-        <v>124.152806192485</v>
+        <v>124.1528061924858</v>
       </c>
       <c r="L4" t="n">
-        <v>286.892432610404</v>
+        <v>286.8924326104026</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193404</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>151.9681874521642</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>89.52785008955016</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4042213248728</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.3017033757466</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.3098513490589</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>24.8597515103684</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484387</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264483</v>
+        <v>190.2072075264481</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922229</v>
+        <v>116.8439548922226</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>231.1620387286887</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>305.6016159748059</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663309</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078403</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896019</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537395</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9228757021759</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3530606403192</v>
+        <v>72.97386457921519</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>61.8675676097161</v>
       </c>
       <c r="G7" t="n">
         <v>167.7551494384634</v>
@@ -27792,10 +27792,10 @@
         <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>148.35842606049</v>
+        <v>148.3584260604899</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>76.68600477300365</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463189</v>
+        <v>66.41450331463172</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108345</v>
@@ -27828,7 +27828,7 @@
         <v>226.9379524973924</v>
       </c>
       <c r="U7" t="n">
-        <v>279.4386902660997</v>
+        <v>286.3061659063093</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>188.5699050465591</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>137.4255976991452</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>11.05637510633795</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792834</v>
+        <v>0.525742352479288</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328461</v>
+        <v>5.384258867328509</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395759</v>
+        <v>20.26868204395777</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873861</v>
+        <v>44.62172498873901</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918669</v>
+        <v>66.87639876918729</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887458</v>
+        <v>82.96608628887532</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977803</v>
+        <v>92.31575684977885</v>
       </c>
       <c r="N5" t="n">
-        <v>93.8095223087598</v>
+        <v>93.80952230876063</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129391</v>
+        <v>88.58167179129471</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446159</v>
+        <v>75.60240746446227</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629725</v>
+        <v>56.77425946629775</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892681</v>
+        <v>33.02516304892711</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712168</v>
+        <v>11.98035385712179</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978064</v>
+        <v>2.301437147978084</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834266</v>
+        <v>0.04205938819834303</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439866</v>
+        <v>0.2812969577439891</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685344</v>
+        <v>2.716736407685369</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904781994</v>
+        <v>9.685004904782081</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387375</v>
+        <v>26.57639371387399</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272085</v>
+        <v>45.42328988272126</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945638</v>
+        <v>61.07721882945693</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767588</v>
+        <v>71.27423354767652</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658184</v>
+        <v>73.16065042658249</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709666</v>
+        <v>66.92770204709726</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323548</v>
+        <v>53.71538134323595</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430257</v>
+        <v>35.90730990430289</v>
       </c>
       <c r="R6" t="n">
-        <v>17.4650865518591</v>
+        <v>17.46508655185926</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235887</v>
+        <v>5.224967614235934</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082121</v>
+        <v>1.133824141082131</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894649</v>
+        <v>0.01850637879894666</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.235829919995318</v>
+        <v>0.2358299199953201</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594738</v>
+        <v>2.096742379594757</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768293</v>
+        <v>7.092048866768356</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366898</v>
+        <v>16.67317534366913</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672876</v>
+        <v>27.39914888672901</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821301</v>
+        <v>35.06147737821333</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344789</v>
+        <v>36.96741191344822</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437446</v>
+        <v>36.08840948437479</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715642</v>
+        <v>33.33348723715672</v>
       </c>
       <c r="P7" t="n">
-        <v>28.5225568692519</v>
+        <v>28.52255686925216</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706249</v>
+        <v>19.74753993706267</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633493</v>
+        <v>10.60377076633503</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009314</v>
+        <v>4.10987233300935</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889086</v>
+        <v>1.007636930889095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156282</v>
+        <v>0.01286345018156293</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,16 +31996,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927188</v>
@@ -32014,19 +32014,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354894</v>
@@ -32072,7 +32072,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
@@ -32081,19 +32081,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710957</v>
@@ -32102,13 +32102,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,19 +32166,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336902</v>
@@ -32187,7 +32187,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32470,16 +32470,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32488,19 +32488,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32546,7 +32546,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32555,19 +32555,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32576,13 +32576,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,19 +32640,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32661,7 +32661,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>111.0745309547127</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.770660483715774</v>
+        <v>76.41420694903826</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.6724356341261</v>
+        <v>32.67243563412649</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953709</v>
+        <v>170.9319602953715</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693378</v>
+        <v>264.8608858693385</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153378</v>
+        <v>311.4830571153386</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241531</v>
+        <v>301.7433831241539</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323526</v>
+        <v>239.2836416323534</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806747</v>
+        <v>166.1681198806754</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175244</v>
+        <v>46.78356025175295</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>18.72158838261935</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209404</v>
+        <v>172.0470879209409</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530414</v>
+        <v>293.3631843530419</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441516</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18.72158838261747</v>
+        <v>387.394840144153</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793817</v>
+        <v>318.1937768793823</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688424</v>
+        <v>238.2037425688429</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541301</v>
+        <v>106.0028235541305</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060845908</v>
+        <v>5.129657060846153</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852915</v>
+        <v>62.65150263852946</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528848</v>
+        <v>76.5512888752888</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360306</v>
+        <v>80.22058186360337</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119609</v>
+        <v>57.91861515119639</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414539</v>
+        <v>25.80111613414565</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M12" t="n">
-        <v>401.6619767334864</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081121</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>441.2361441450404</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35814,16 +35814,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>354.1326152325981</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192542</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>264.1781307173919</v>
       </c>
       <c r="L21" t="n">
-        <v>479.9728913332265</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980131</v>
@@ -36218,10 +36218,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36288,16 +36288,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>618.3470930053969</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>588.4784392551034</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507419</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>438.0694836745864</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507419</v>
@@ -36911,22 +36911,22 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>536.1008625915812</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507419</v>
@@ -37148,25 +37148,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700192</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.4883924248546</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>479.9728913332272</v>
+        <v>522.1296519817035</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315248</v>
@@ -37406,7 +37406,7 @@
         <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951474</v>
@@ -37628,19 +37628,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.8510818313019</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109126</v>
@@ -37862,10 +37862,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>397.3927609030879</v>
       </c>
       <c r="M42" t="n">
-        <v>714.1872090116792</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980131</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686868</v>
@@ -38017,7 +38017,7 @@
         <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109073</v>
@@ -38099,25 +38099,25 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>523.6234546530878</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>438.0694836745869</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2659210.602312013</v>
+        <v>2652037.313601729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9328780.454309708</v>
+        <v>9328780.454309709</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>149.0142977744306</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>166.4457214267535</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.41213836320977</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.4151008513906</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.51066041050598</v>
+        <v>372.0396308464218</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464233</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>14.83013367771037</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>54.63983515594968</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.17339989484525</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.13414543046075</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281874</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.87637597787459</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5860313669137</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>232.7939764967523</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.57756245340234</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>159.9479264102629</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>64.77871132208016</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336595</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.1108775836599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>124.1101968671229</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.9023612584499</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>156.67232330199</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.6238729027259</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>62.742365442944</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>143.9705362099828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>86.80469552384545</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>253.4950710062516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>260.2738582175271</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>91.97546116399351</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>104.435614114766</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3319,10 +3319,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.16481274941263</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>161.4147688595655</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>173.5468522613754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>117.7873989665796</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>80.7934027459816</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>49.07121283591377</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179.557514546837</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="C2" t="n">
-        <v>179.557514546837</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="D2" t="n">
-        <v>179.557514546837</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="E2" t="n">
-        <v>179.557514546837</v>
+        <v>515.103310552464</v>
       </c>
       <c r="F2" t="n">
-        <v>172.6120137976335</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>737.4494614202823</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>737.4494614202823</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>737.4494614202823</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="W2" t="n">
-        <v>737.4494614202823</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="X2" t="n">
-        <v>737.4494614202823</v>
+        <v>794.0492839891867</v>
       </c>
       <c r="Y2" t="n">
-        <v>458.5034879835596</v>
+        <v>794.0492839891867</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.4799600385667</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>171.0269307574397</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>159.4923828364511</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>432.8873314017829</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N3" t="n">
-        <v>706.2822799671148</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945613</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>836.17674519153</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U3" t="n">
-        <v>836.17674519153</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V3" t="n">
-        <v>836.17674519153</v>
+        <v>439.3754342399362</v>
       </c>
       <c r="W3" t="n">
-        <v>581.9393884633284</v>
+        <v>185.1380775117345</v>
       </c>
       <c r="X3" t="n">
-        <v>581.9393884633284</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y3" t="n">
-        <v>374.1790896983745</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.738518601274</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="C5" t="n">
-        <v>614.738518601274</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="D5" t="n">
-        <v>614.738518601274</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="E5" t="n">
-        <v>614.738518601274</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="F5" t="n">
-        <v>238.9409116856949</v>
+        <v>44.743103475502</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380445</v>
+        <v>57.64391735380394</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456888</v>
+        <v>220.1747338456877</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039992</v>
+        <v>474.0852112039972</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494182</v>
+        <v>773.2160860494155</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293132</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935885</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488197</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488197</v>
+        <v>1166.509506436745</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488197</v>
+        <v>1166.509506436745</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488197</v>
+        <v>1166.509506436745</v>
       </c>
       <c r="V5" t="n">
-        <v>1035.699760144626</v>
+        <v>835.4466190931747</v>
       </c>
       <c r="W5" t="n">
-        <v>682.9311048745124</v>
+        <v>482.6779638230606</v>
       </c>
       <c r="X5" t="n">
-        <v>682.9311048745124</v>
+        <v>427.4862111402831</v>
       </c>
       <c r="Y5" t="n">
-        <v>682.9311048745124</v>
+        <v>427.4862111402831</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>514.1459600051526</v>
+        <v>414.9419224351882</v>
       </c>
       <c r="C6" t="n">
-        <v>514.1459600051526</v>
+        <v>240.4888931540612</v>
       </c>
       <c r="D6" t="n">
-        <v>514.1459600051526</v>
+        <v>91.55448349280996</v>
       </c>
       <c r="E6" t="n">
-        <v>354.9085049996971</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="F6" t="n">
-        <v>208.373947026582</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="G6" t="n">
-        <v>208.373947026582</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760271</v>
+        <v>195.5446164760265</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221638</v>
+        <v>479.8626256221626</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181903993</v>
+        <v>848.1818601601201</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903993</v>
+        <v>949.3968358693983</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562719</v>
+        <v>1257.711717241717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706689</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785562</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T6" t="n">
-        <v>1118.32841013661</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="U6" t="n">
-        <v>890.1215957901745</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="V6" t="n">
-        <v>890.1215957901745</v>
+        <v>1253.006415153945</v>
       </c>
       <c r="W6" t="n">
-        <v>890.1215957901745</v>
+        <v>998.769058425743</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1215957901745</v>
+        <v>790.9175582202101</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.3612970252207</v>
+        <v>583.1572594552563</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771387</v>
+        <v>87.2140552938497</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771387</v>
+        <v>87.2140552938497</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771387</v>
+        <v>87.2140552938497</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888188</v>
+        <v>32.09990175888149</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611325</v>
+        <v>90.61654790611252</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236696</v>
+        <v>162.7032697236685</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400032</v>
+        <v>238.5105468400017</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057959</v>
+        <v>292.5145415057942</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.203606191867</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.203606191867</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.203606191867</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.203606191867</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.203606191867</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.203606191867</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.203606191867</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.203606191867</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771387</v>
+        <v>87.2140552938497</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771387</v>
+        <v>87.2140552938497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.251950079336</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>566.5654221758658</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,34 +5053,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>2771.824048372323</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>3484.747546292012</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>4289.159124556163</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>4568.69918977486</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9958217162124</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1322.408125380253</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1098.622710169759</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>809.4940713833167</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188992</v>
+        <v>554.8095831774299</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188992</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4512536188992</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.9958217162124</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.7859813545102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>688.7859813545102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>538.6693419421745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>390.7562483597814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>390.7562483597814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>222.580926679602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>870.43444618475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.43444618475</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.1556594977382</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C19" t="n">
-        <v>207.2194765698312</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D19" t="n">
-        <v>207.2194765698312</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>207.2194765698312</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>207.2194765698312</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5679,46 +5679,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799318</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471146</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557898</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.99626047345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262956</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262956</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262956</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259952</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279779</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8041243279779</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916677</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916677</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916677</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>221.0795893418272</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4486.483332781627</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4197.354693995185</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995185</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958224</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060207</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916677</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003442</v>
@@ -5977,7 +5977,7 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>539.5926371926334</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>846.9127704725951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3923.633000307407</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>3754.6968173795</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>3604.580177967164</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>3604.580177967164</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>4326.074044281177</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W25" t="n">
-        <v>4326.074044281177</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X25" t="n">
-        <v>4326.074044281177</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y25" t="n">
-        <v>4105.281465137647</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6259,13 +6259,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.599783924191</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688025</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799318</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471146</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.99626047345</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.99626047345</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.99626047345</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.99626047345</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1042.940633194408</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1042.940633194408</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.166270715387</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>4119.481782509501</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>3830.06461247254</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>3830.06461247254</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>3609.27203332901</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2446.115379232724</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>337.0115451844523</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>337.0115451844523</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>337.0115451844523</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>785.7936752259998</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>557.8041243279824</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y34" t="n">
-        <v>337.0115451844523</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6967,22 +6967,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324574</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>192.33306393444</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,25 +7183,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7259,16 +7259,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.4221461351941</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X40" t="n">
-        <v>745.0706109654338</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.0706109654338</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>327.7288535116511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>327.7288535116511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>327.7288535116511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>327.7288535116511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>327.7288535116511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7605,16 +7605,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7630,55 +7630,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>743.3431626812559</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C46" t="n">
-        <v>574.406979753349</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D46" t="n">
-        <v>574.406979753349</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>426.4938861709559</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241922</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688036</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799329</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471158</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>1244.231782352012</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>1244.231782352012</v>
       </c>
       <c r="X46" t="n">
-        <v>964.135741824786</v>
+        <v>1016.242231453995</v>
       </c>
       <c r="Y46" t="n">
-        <v>743.3431626812559</v>
+        <v>795.4496523104646</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>248.457057099116</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948382</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>449.9671492737523</v>
+        <v>450.1033532835733</v>
       </c>
       <c r="N6" t="n">
-        <v>65.57565010062321</v>
+        <v>167.8129993019151</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>412.600292959643</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>5.100663089359642</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>202.5230052237939</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.1420986615231</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.4737757684349</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>24.8036315004132</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.59120720492767</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>61.9123300501048</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>43.86969556065164</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>158.8051956154453</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.450511812948434</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>165.3329477999825</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>33.02792733033942</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>25.96349418105024</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>54.45850148257566</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.32875571396495</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>5.832052239062307</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>52.16280312766173</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>31.12642940095652</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>99.0385774359557</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>96.34983518701748</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>838051.1785256946</v>
+        <v>838051.1785256945</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065631</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703851</v>
+        <v>106137.1517703834</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252097</v>
+        <v>316711.9424252114</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313441</v>
+        <v>24677.246093134</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817115</v>
+        <v>76496.15793817156</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>252867.8426256211</v>
+        <v>252867.8426256216</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26429,19 +26429,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143899</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143899</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26472,16 +26472,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485724</v>
+        <v>58810.42201485712</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154950.2610412365</v>
+        <v>154950.2610412369</v>
       </c>
       <c r="C6" t="n">
-        <v>197965.9109873493</v>
+        <v>197965.9109873504</v>
       </c>
       <c r="D6" t="n">
-        <v>59435.34865837064</v>
+        <v>59435.34865836884</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048902</v>
+        <v>-46624.03370021017</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364075</v>
+        <v>478536.002776686</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364077</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="J6" t="n">
-        <v>407255.8991652685</v>
+        <v>406281.3079055464</v>
       </c>
       <c r="K6" t="n">
-        <v>454833.3479432727</v>
+        <v>453858.7566835517</v>
       </c>
       <c r="L6" t="n">
-        <v>403014.4360982362</v>
+        <v>402039.8448385142</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025699</v>
+        <v>343734.9875428486</v>
       </c>
       <c r="N6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364074</v>
+        <v>478536.0027766858</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766858</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.56020455939</v>
+        <v>117.5602045593887</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464233</v>
+        <v>372.0396308464218</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026472</v>
+        <v>82.53894384026339</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576966</v>
+        <v>260.183459657698</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440679</v>
+        <v>95.88311714406629</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081338</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406767</v>
+        <v>95.88311714406609</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.247641908134</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440679</v>
+        <v>95.88311714406629</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081338</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>266.1476507528888</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>161.3065370433814</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.1210452866576</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>44.35788435208687</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.23059496405</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27596,7 +27596,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>77.00644937595013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.2231812529746</v>
+        <v>10.69421081705877</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.8364148952881</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>315.0912655225193</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>96.4716805605557</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>13.65915191509443</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281884</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129666</v>
+        <v>84.45800155129683</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>89.55758666869458</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358464</v>
+        <v>78.37121764358481</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322648</v>
+        <v>68.41045236322668</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690768092</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8890651239307</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>245.2407793169701</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.1320929356348</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.63672694183188</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29043,19 +29043,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,31 +31059,31 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,28 +31120,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246833</v>
+        <v>0.4726038374246779</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025539</v>
+        <v>4.840054050025484</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231512</v>
+        <v>18.22005944231491</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662325</v>
+        <v>40.11165994662279</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848101</v>
+        <v>60.11698038480942</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439576</v>
+        <v>74.58043007439493</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819697</v>
+        <v>82.98509856819604</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127986</v>
+        <v>84.32788422127891</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288816</v>
+        <v>79.62842981288726</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646628</v>
+        <v>67.96102257646552</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486948</v>
+        <v>51.03589764869422</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262829</v>
+        <v>29.68720080262795</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531498</v>
+        <v>10.76945994531486</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326552</v>
+        <v>2.068823298326528</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397465</v>
+        <v>0.03780830699397423</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560465</v>
+        <v>0.2528653456560437</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941292</v>
+        <v>2.442146890941264</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859634</v>
+        <v>8.706109488596242</v>
       </c>
       <c r="J6" t="n">
-        <v>23.8902298718285</v>
+        <v>23.89022987182824</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078362</v>
+        <v>40.83220803078316</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483589</v>
+        <v>54.90394270483528</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486756</v>
+        <v>64.07031148486685</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827101</v>
+        <v>65.76606198270936</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106822</v>
+        <v>60.16309827106755</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349691</v>
+        <v>48.28619043496855</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128763</v>
+        <v>32.27803956128727</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134647</v>
+        <v>15.6998326013463</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707703</v>
+        <v>4.69686288970765</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235924</v>
+        <v>1.019224792359228</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368728</v>
+        <v>0.01663587800368709</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005394</v>
+        <v>0.211993811500537</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886615</v>
+        <v>1.884817705886594</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761677</v>
+        <v>6.375232076761606</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308814</v>
+        <v>14.98796247308797</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634263</v>
+        <v>24.62982646342602</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072565</v>
+        <v>31.5176981207253</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094364</v>
+        <v>33.23099356094327</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898711</v>
+        <v>32.44083480898674</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736716</v>
+        <v>29.96436164736683</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275614</v>
+        <v>25.63968789275585</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884679</v>
+        <v>17.7515908884677</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651524</v>
+        <v>9.532012651651417</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513945</v>
+        <v>3.694473969513903</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047759</v>
+        <v>0.9057917400477489</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912035</v>
+        <v>0.01156329880912021</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>123.783438411562</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201073</v>
+        <v>28.16237059201028</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109943</v>
+        <v>164.1725419109936</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548589</v>
+        <v>256.4752296548581</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337567</v>
+        <v>302.1523988337558</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366731</v>
+        <v>292.2617450366722</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539468</v>
+        <v>230.3303996539459</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926794</v>
+        <v>158.5267349926786</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415</v>
+        <v>41.04519843414942</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690032</v>
+        <v>167.4560060690028</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284209</v>
+        <v>287.1899082284203</v>
       </c>
       <c r="M6" t="n">
-        <v>371.9034268366015</v>
+        <v>372.0396308464218</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>102.2373492012911</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033533</v>
+        <v>311.4291731033526</v>
       </c>
       <c r="P6" t="n">
-        <v>232.774551660576</v>
+        <v>232.7745516605755</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111152</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543449</v>
+        <v>2.360334637543172</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104179</v>
+        <v>59.10772338104144</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278422</v>
+        <v>72.81487052278385</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821571</v>
+        <v>76.57300718821534</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140684</v>
+        <v>54.5494895614065</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764962</v>
+        <v>22.91824715764934</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>10.73738595686865</v>
@@ -36047,7 +36047,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799238</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>254.358368045384</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556079</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,19 +37870,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>481.9867828282169</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>484.886707464902</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556195</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
